--- a/figures/ml_dataset_visualizaiton.xlsx
+++ b/figures/ml_dataset_visualizaiton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Documents\GitHub\pytcpl\pytcpl\export\figures\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Documents\GitHub\master_thesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD48C8D-974B-4628-ADF6-C6EEC0F18E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA722A9-B075-4252-AD9F-B4C89A0C67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B8F3AF0-A29F-46D0-A036-574968B8D204}"/>
   </bookViews>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>Chem_1</t>
-  </si>
-  <si>
-    <t>Chem_2</t>
-  </si>
-  <si>
-    <t>Chem_3</t>
-  </si>
-  <si>
-    <t>Chem_m</t>
-  </si>
-  <si>
     <t>X (fingerprint features)</t>
   </si>
   <si>
@@ -74,19 +62,28 @@
     <t>y (activity label)</t>
   </si>
   <si>
-    <t>Chem ID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>hit-call (binary)</t>
-  </si>
-  <si>
-    <t>hit-call (continuous)</t>
-  </si>
-  <si>
-    <t>Chem_4</t>
+    <t>Compound ID</t>
+  </si>
+  <si>
+    <t>Compound_1</t>
+  </si>
+  <si>
+    <t>Compound_2</t>
+  </si>
+  <si>
+    <t>Compound_3</t>
+  </si>
+  <si>
+    <t>Compound_4</t>
+  </si>
+  <si>
+    <t>Compound_m</t>
+  </si>
+  <si>
+    <t>hitcall (continuous)</t>
+  </si>
+  <si>
+    <t>hitcall (binary)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,28 +461,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,7 +481,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,6 +544,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,12 +878,12 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -896,56 +892,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -957,24 +951,24 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -986,24 +980,24 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="24">
         <v>0.01</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1015,24 +1009,24 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1044,74 +1038,74 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
         <v>0.98</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="26">
         <v>0.01</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
         <v>0</v>
       </c>
     </row>

--- a/figures/ml_dataset_visualizaiton.xlsx
+++ b/figures/ml_dataset_visualizaiton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Documents\GitHub\master_thesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA722A9-B075-4252-AD9F-B4C89A0C67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278FD2C-8607-4C3A-A7D8-551F8E3EA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B8F3AF0-A29F-46D0-A036-574968B8D204}"/>
+    <workbookView xWindow="22932" yWindow="-8412" windowWidth="30936" windowHeight="16776" xr2:uid="{0B8F3AF0-A29F-46D0-A036-574968B8D204}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>…</t>
   </si>
@@ -44,46 +44,43 @@
     <t>X (fingerprint features)</t>
   </si>
   <si>
-    <t>fps_1</t>
-  </si>
-  <si>
-    <t>fps_2</t>
-  </si>
-  <si>
-    <t>fps_3</t>
-  </si>
-  <si>
-    <t>fps_4</t>
-  </si>
-  <si>
-    <t>fps_n</t>
-  </si>
-  <si>
     <t>y (activity label)</t>
   </si>
   <si>
     <t>Compound ID</t>
   </si>
   <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_2</t>
-  </si>
-  <si>
-    <t>Compound_3</t>
-  </si>
-  <si>
-    <t>Compound_4</t>
-  </si>
-  <si>
-    <t>Compound_m</t>
-  </si>
-  <si>
-    <t>hitcall (continuous)</t>
-  </si>
-  <si>
-    <t>hitcall (binary)</t>
+    <t>hitcall</t>
+  </si>
+  <si>
+    <t>fps 1</t>
+  </si>
+  <si>
+    <t>fps 2</t>
+  </si>
+  <si>
+    <t>fps 3</t>
+  </si>
+  <si>
+    <t>fps 4</t>
+  </si>
+  <si>
+    <t>fps n</t>
+  </si>
+  <si>
+    <t>DTXSID 1</t>
+  </si>
+  <si>
+    <t>DTXSID m</t>
+  </si>
+  <si>
+    <t>DTXSID 4</t>
+  </si>
+  <si>
+    <t>DTXSID 3</t>
+  </si>
+  <si>
+    <t>DTXSID 2</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -243,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -279,19 +263,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -453,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,84 +439,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +508,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -875,71 +828,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A2A379-18AF-40EB-ABB8-3E6314F094B6}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="E2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="19">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -957,18 +905,15 @@
       <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="H3" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -986,18 +931,15 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <v>0.01</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="20">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1015,18 +957,15 @@
       <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -1044,75 +983,65 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>0.98</v>
       </c>
-      <c r="I6" s="11">
+    </row>
+    <row r="7" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>0.01</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figures/ml_dataset_visualizaiton.xlsx
+++ b/figures/ml_dataset_visualizaiton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Documents\GitHub\master_thesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278FD2C-8607-4C3A-A7D8-551F8E3EA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6648FEA0-F176-4A46-A535-DBE351B99752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-8412" windowWidth="30936" windowHeight="16776" xr2:uid="{0B8F3AF0-A29F-46D0-A036-574968B8D204}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B8F3AF0-A29F-46D0-A036-574968B8D204}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>…</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>DTXSID 2</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -474,18 +477,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,10 +499,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -828,220 +831,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A2A379-18AF-40EB-ABB8-3E6314F094B6}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="G3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I5" s="30">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="s">
+    <row r="8" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="I9" s="32">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
